--- a/Отчет за Октябрь.xlsx
+++ b/Отчет за Октябрь.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{159CB0C2-E293-443D-B2E5-1A30F7FAA2DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ED8D5D8-4A3D-4CD8-8BEE-03B0E4E7E075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1808" yWindow="1808" windowWidth="16199" windowHeight="9397" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,15 +502,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2445788-B535-400F-BFF9-A188CF3ADDAF}" name="Таблица1" displayName="Таблица1" ref="A1:G23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="15" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FFA6F3-0BAF-4763-B3DB-6EE5854C7DDE}" name="Таблица1" displayName="Таблица1" ref="A1:G23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="15" tableBorderDxfId="16">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B5022316-D286-4269-810F-528EDBE8D82B}" name="Столбец1" headerRowDxfId="0" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{2B41122F-3F51-497E-8E06-A8BE152BE8C2}" name="Столбец2" headerRowDxfId="1" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{E96AC679-EC92-4FBF-A8BD-57D1142569FE}" name="Столбец3" headerRowDxfId="2" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{05365821-9E0C-4590-AAE9-DD1ABD09DDDB}" name="Столбец4" headerRowDxfId="3" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{BBE0D688-0285-461D-86CD-D0782A309DC5}" name="Столбец5" headerRowDxfId="4" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{EBE4CA13-7070-4CE7-A01D-8105588D082F}" name="Столбец6" headerRowDxfId="5" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{DC06F9B7-E86B-418B-AA8F-2A3A53C3DA0E}" name="Столбец7" headerRowDxfId="6" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{3E3A8BBB-8A99-472C-BCF7-4749E358E571}" name="Столбец1" headerRowDxfId="0" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{C6346D80-09CF-4A38-AAAF-42BEACB052DF}" name="Столбец2" headerRowDxfId="1" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{0CB09122-FFAC-40F6-90C7-4F3864B4AB51}" name="Столбец3" headerRowDxfId="2" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{F68EACC1-8172-452C-892C-B972973A8955}" name="Столбец4" headerRowDxfId="3" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{E78F558E-0A51-45D7-871D-58D20A1FEAA7}" name="Столбец5" headerRowDxfId="4" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{E47C15D5-EA03-46BF-AE6B-7B73F6D65A0C}" name="Столбец6" headerRowDxfId="5" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{5CAF6E0E-5D59-4704-9BAD-78A455279327}" name="Столбец7" headerRowDxfId="6" dataDxfId="8">
       <calculatedColumnFormula>(B2/E2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
